--- a/Crawling/crawling_data/day_genie/day_genie_20220105.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220105.xlsx
@@ -214,8 +214,7 @@
     <t>Blueming</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>오늘도 빛나는 너에게 (To You My Light) (Feat.이라온)</t>
